--- a/オーバーキラー/オーバーキラー/マップデータ/マップ001.xlsx
+++ b/オーバーキラー/オーバーキラー/マップデータ/マップ001.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\マスターデータ\オーバーキラー\オーバーキラー\マップデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DT1" workbookViewId="0">
-      <selection activeCell="GF15" sqref="GF15"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CR13" sqref="CR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -969,34 +969,34 @@
         <v>0</v>
       </c>
       <c r="EA1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EB1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EC1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="ED1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EF1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EG1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EH1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EJ1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EK1">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="GB1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GC1">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL2">
         <v>0</v>
@@ -1388,34 +1388,34 @@
         <v>0</v>
       </c>
       <c r="BR2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BW2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BZ2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CA2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -1439,64 +1439,64 @@
         <v>0</v>
       </c>
       <c r="CI2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CK2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CL2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CN2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CO2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CP2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CQ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CS2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CT2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CX2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CY2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CZ2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DA2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DC2">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="DL2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -1960,181 +1960,181 @@
         <v>0</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BN3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BQ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BR3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CB3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CF3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CG3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CI3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CN3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CQ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CR3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CS3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CU3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CW3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CX3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CZ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DA3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DC3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DD3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DE3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DF3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DG3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DH3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DI3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DK3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DL3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DM3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DN3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DO3">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH4">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="BK5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -3194,34 +3194,34 @@
         <v>0</v>
       </c>
       <c r="BR5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -3245,64 +3245,64 @@
         <v>0</v>
       </c>
       <c r="CI5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DC5">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="DJ5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DK5">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BF6">
         <v>0</v>
@@ -3766,178 +3766,178 @@
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CQ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="DN6">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE7">
         <v>0</v>
@@ -4365,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="BG7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH7">
         <v>0</v>
@@ -4955,7 +4955,7 @@
         <v>0</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BD8">
         <v>0</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="BF8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="BC9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD9">
         <v>0</v>
@@ -5956,13 +5956,13 @@
         <v>5</v>
       </c>
       <c r="GF9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="GG9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="GH9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="GI9">
         <v>0</v>
@@ -6216,55 +6216,55 @@
         <v>4</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BX10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BZ10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CB10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CC10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CE10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CF10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CG10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CI10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CJ10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CK10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CL10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM10">
         <v>0</v>
@@ -6315,31 +6315,31 @@
         <v>0</v>
       </c>
       <c r="DC10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DD10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DE10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DF10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DG10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DH10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DI10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DJ10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DK10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="DL10">
         <v>4</v>
@@ -6600,5 +6600,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>